--- a/LOCATION SHEETS/MISFILED.xlsx
+++ b/LOCATION SHEETS/MISFILED.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ed/Documents/WR4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C6067C-2D2E-4D42-96F7-BCFA574D49E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC912C7-57B8-7243-85A8-B9E6C30C5F9E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="500" windowWidth="31180" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="144">
   <si>
     <t>Subject</t>
   </si>
@@ -450,6 +450,9 @@
   <si>
     <t>Found in Dec 2020</t>
   </si>
+  <si>
+    <t>TYRain_1890-1899_23_pt1</t>
+  </si>
 </sst>
 </file>
 
@@ -791,11 +794,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB970"/>
+  <dimension ref="A1:AB971"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B64" sqref="B64"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2065,71 +2068,71 @@
     </row>
     <row r="28" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="14">
-        <v>41943583</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14">
         <v>1890</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="14">
         <v>1880</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G28" s="7">
-        <v>7</v>
-      </c>
-      <c r="H28" s="8"/>
-      <c r="I28" s="4" t="s">
+      <c r="F28" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" s="19">
+        <v>103</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I28" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
-      <c r="AB28" s="5"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
     </row>
     <row r="29" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="14">
-        <v>42016552</v>
+        <v>41943583</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="1">
+        <v>1890</v>
+      </c>
+      <c r="E29" s="1">
         <v>1880</v>
       </c>
-      <c r="E29" s="1">
-        <v>1890</v>
-      </c>
       <c r="F29" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G29" s="7">
-        <v>17</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>77</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="H29" s="8"/>
       <c r="I29" s="4" t="s">
         <v>12</v>
       </c>
@@ -2155,14 +2158,12 @@
     </row>
     <row r="30" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="14">
-        <v>42017926</v>
+        <v>42016552</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C30" s="1">
-        <v>2327</v>
-      </c>
+        <v>75</v>
+      </c>
+      <c r="C30" s="5"/>
       <c r="D30" s="1">
         <v>1880</v>
       </c>
@@ -2170,20 +2171,18 @@
         <v>1890</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G30" s="7">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>81</v>
-      </c>
+      <c r="J30" s="5"/>
       <c r="K30" s="5"/>
       <c r="L30" s="5"/>
       <c r="M30" s="5"/>
@@ -2205,12 +2204,14 @@
     </row>
     <row r="31" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="14">
-        <v>42020029</v>
+        <v>42017926</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="5"/>
+        <v>78</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2327</v>
+      </c>
       <c r="D31" s="1">
         <v>1880</v>
       </c>
@@ -2218,16 +2219,20 @@
         <v>1890</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G31" s="7">
-        <v>41</v>
-      </c>
-      <c r="H31" s="8"/>
+        <v>15</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>80</v>
+      </c>
       <c r="I31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J31" s="5"/>
+      <c r="J31" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="K31" s="5"/>
       <c r="L31" s="5"/>
       <c r="M31" s="5"/>
@@ -2249,10 +2254,10 @@
     </row>
     <row r="32" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="14">
-        <v>42020030</v>
+        <v>42020029</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="1">
@@ -2265,11 +2270,9 @@
         <v>83</v>
       </c>
       <c r="G32" s="7">
-        <v>42</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>85</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="H32" s="8"/>
       <c r="I32" s="4" t="s">
         <v>12</v>
       </c>
@@ -2295,10 +2298,10 @@
     </row>
     <row r="33" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="14">
-        <v>42020454</v>
+        <v>42020030</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="1">
@@ -2308,12 +2311,14 @@
         <v>1890</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G33" s="7">
-        <v>3</v>
-      </c>
-      <c r="H33" s="8"/>
+        <v>42</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="I33" s="4" t="s">
         <v>12</v>
       </c>
@@ -2339,33 +2344,29 @@
     </row>
     <row r="34" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="14">
-        <v>42169784</v>
+        <v>42020454</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1412</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="C34" s="5"/>
       <c r="D34" s="1">
-        <v>1950</v>
+        <v>1880</v>
       </c>
       <c r="E34" s="1">
-        <v>1940</v>
+        <v>1890</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G34" s="7">
-        <v>204</v>
-      </c>
-      <c r="H34" s="16"/>
+        <v>3</v>
+      </c>
+      <c r="H34" s="8"/>
       <c r="I34" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J34" s="4" t="s">
-        <v>20</v>
-      </c>
+      <c r="J34" s="5"/>
       <c r="K34" s="5"/>
       <c r="L34" s="5"/>
       <c r="M34" s="5"/>
@@ -2387,29 +2388,33 @@
     </row>
     <row r="35" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="14">
-        <v>42258329</v>
+        <v>42169784</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1412</v>
+      </c>
       <c r="D35" s="1">
-        <v>1870</v>
+        <v>1950</v>
       </c>
       <c r="E35" s="1">
-        <v>1880</v>
+        <v>1940</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G35" s="7">
-        <v>42</v>
-      </c>
-      <c r="H35" s="8"/>
+        <v>204</v>
+      </c>
+      <c r="H35" s="16"/>
       <c r="I35" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="5"/>
+      <c r="J35" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="K35" s="5"/>
       <c r="L35" s="5"/>
       <c r="M35" s="5"/>
@@ -2431,7 +2436,7 @@
     </row>
     <row r="36" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="14">
-        <v>42258330</v>
+        <v>42258329</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>90</v>
@@ -2447,9 +2452,9 @@
         <v>91</v>
       </c>
       <c r="G36" s="7">
-        <v>43</v>
-      </c>
-      <c r="H36" s="16"/>
+        <v>42</v>
+      </c>
+      <c r="H36" s="8"/>
       <c r="I36" s="4" t="s">
         <v>12</v>
       </c>
@@ -2475,25 +2480,25 @@
     </row>
     <row r="37" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="14">
-        <v>42258331</v>
+        <v>42258330</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="1">
         <v>1870</v>
       </c>
       <c r="E37" s="1">
-        <v>1890</v>
+        <v>1880</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G37" s="7">
-        <v>44</v>
-      </c>
-      <c r="H37" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="H37" s="16"/>
       <c r="I37" s="4" t="s">
         <v>12</v>
       </c>
@@ -2519,29 +2524,25 @@
     </row>
     <row r="38" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="14">
-        <v>42258332</v>
+        <v>42258331</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1707</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C38" s="5"/>
       <c r="D38" s="1">
         <v>1870</v>
       </c>
       <c r="E38" s="1">
-        <v>1900</v>
+        <v>1890</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G38" s="7">
-        <v>45</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>94</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="H38" s="8"/>
       <c r="I38" s="4" t="s">
         <v>12</v>
       </c>
@@ -2567,7 +2568,7 @@
     </row>
     <row r="39" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="14">
-        <v>42258333</v>
+        <v>42258332</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>93</v>
@@ -2579,13 +2580,13 @@
         <v>1870</v>
       </c>
       <c r="E39" s="1">
-        <v>1910</v>
+        <v>1900</v>
       </c>
       <c r="F39" s="7" t="s">
         <v>91</v>
       </c>
       <c r="G39" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" s="10" t="s">
         <v>94</v>
@@ -2615,26 +2616,28 @@
     </row>
     <row r="40" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="14">
-        <v>42260143</v>
+        <v>42258333</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1707</v>
+      </c>
       <c r="D40" s="1">
         <v>1870</v>
       </c>
       <c r="E40" s="1">
-        <v>1880</v>
+        <v>1910</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="G40" s="7">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>12</v>
@@ -2661,33 +2664,31 @@
     </row>
     <row r="41" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="14">
-        <v>42261253</v>
+        <v>42260143</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="1">
         <v>1870</v>
       </c>
       <c r="E41" s="1">
-        <v>1860</v>
+        <v>1880</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G41" s="7">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J41" s="4" t="s">
-        <v>101</v>
-      </c>
+      <c r="J41" s="5"/>
       <c r="K41" s="5"/>
       <c r="L41" s="5"/>
       <c r="M41" s="5"/>
@@ -2709,29 +2710,33 @@
     </row>
     <row r="42" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="14">
-        <v>42438276</v>
+        <v>42261253</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="1">
+        <v>1870</v>
+      </c>
+      <c r="E42" s="1">
         <v>1860</v>
       </c>
-      <c r="E42" s="1">
-        <v>1870</v>
-      </c>
       <c r="F42" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G42" s="7">
-        <v>16</v>
-      </c>
-      <c r="H42" s="8"/>
+        <v>83</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>100</v>
+      </c>
       <c r="I42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J42" s="5"/>
+      <c r="J42" s="4" t="s">
+        <v>101</v>
+      </c>
       <c r="K42" s="5"/>
       <c r="L42" s="5"/>
       <c r="M42" s="5"/>
@@ -2753,10 +2758,10 @@
     </row>
     <row r="43" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="14">
-        <v>42438352</v>
+        <v>42438276</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="1">
@@ -2769,7 +2774,7 @@
         <v>103</v>
       </c>
       <c r="G43" s="7">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="4" t="s">
@@ -2797,33 +2802,29 @@
     </row>
     <row r="44" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="14">
-        <v>42736869</v>
+        <v>42438352</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C44" s="15">
-        <v>205269</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="C44" s="5"/>
       <c r="D44" s="1">
-        <v>1940</v>
+        <v>1860</v>
       </c>
       <c r="E44" s="1">
-        <v>1950</v>
+        <v>1870</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G44" s="7">
-        <v>47</v>
-      </c>
-      <c r="H44" s="16"/>
+        <v>32</v>
+      </c>
+      <c r="H44" s="8"/>
       <c r="I44" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J44" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="J44" s="5"/>
       <c r="K44" s="5"/>
       <c r="L44" s="5"/>
       <c r="M44" s="5"/>
@@ -2845,13 +2846,13 @@
     </row>
     <row r="45" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="14">
-        <v>42747253</v>
+        <v>42736869</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C45" s="1">
-        <v>1412</v>
+        <v>46</v>
+      </c>
+      <c r="C45" s="15">
+        <v>205269</v>
       </c>
       <c r="D45" s="1">
         <v>1940</v>
@@ -2860,10 +2861,10 @@
         <v>1950</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="G45" s="7">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="H45" s="16"/>
       <c r="I45" s="4" t="s">
@@ -2891,35 +2892,35 @@
       <c r="AA45" s="5"/>
       <c r="AB45" s="5"/>
     </row>
-    <row r="46" spans="1:28" ht="13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="14">
-        <v>43224014</v>
+        <v>42747253</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="C46" s="1">
-        <v>4156</v>
+        <v>1412</v>
       </c>
       <c r="D46" s="1">
-        <v>1880</v>
+        <v>1940</v>
       </c>
       <c r="E46" s="1">
-        <v>1890</v>
+        <v>1950</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="G46" s="7">
-        <v>140</v>
-      </c>
-      <c r="H46" s="10" t="s">
-        <v>108</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="H46" s="16"/>
       <c r="I46" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J46" s="9"/>
+      <c r="J46" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
@@ -2941,12 +2942,14 @@
     </row>
     <row r="47" spans="1:28" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="14">
-        <v>43224086</v>
+        <v>43224014</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C47" s="5"/>
+        <v>106</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4156</v>
+      </c>
       <c r="D47" s="1">
         <v>1880</v>
       </c>
@@ -2954,12 +2957,14 @@
         <v>1890</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="G47" s="7">
-        <v>43</v>
-      </c>
-      <c r="H47" s="8"/>
+        <v>140</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>108</v>
+      </c>
       <c r="I47" s="4" t="s">
         <v>12</v>
       </c>
@@ -2985,10 +2990,10 @@
     </row>
     <row r="48" spans="1:28" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="14">
-        <v>43224171</v>
+        <v>43224086</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="1">
@@ -2998,14 +3003,12 @@
         <v>1890</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="G48" s="7">
         <v>43</v>
       </c>
-      <c r="H48" s="10" t="s">
-        <v>112</v>
-      </c>
+      <c r="H48" s="8"/>
       <c r="I48" s="4" t="s">
         <v>12</v>
       </c>
@@ -3031,25 +3034,27 @@
     </row>
     <row r="49" spans="1:28" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="14">
-        <v>43225468</v>
+        <v>43224171</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="1">
+        <v>1880</v>
+      </c>
+      <c r="E49" s="1">
         <v>1890</v>
       </c>
-      <c r="E49" s="1">
-        <v>1880</v>
-      </c>
       <c r="F49" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G49" s="7">
-        <v>6</v>
-      </c>
-      <c r="H49" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>112</v>
+      </c>
       <c r="I49" s="4" t="s">
         <v>12</v>
       </c>
@@ -3074,32 +3079,30 @@
       <c r="AB49" s="5"/>
     </row>
     <row r="50" spans="1:28" ht="13" x14ac:dyDescent="0.15">
-      <c r="A50" s="1">
-        <v>0</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>115</v>
+      <c r="A50" s="14">
+        <v>43225468</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="C50" s="5"/>
-      <c r="D50" s="18">
-        <v>1840</v>
-      </c>
-      <c r="E50" s="18">
-        <v>1800</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>116</v>
+      <c r="D50" s="1">
+        <v>1890</v>
+      </c>
+      <c r="E50" s="1">
+        <v>1880</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="G50" s="7">
-        <v>74</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>117</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="H50" s="8"/>
       <c r="I50" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J50" s="19"/>
+      <c r="J50" s="9"/>
       <c r="K50" s="5"/>
       <c r="L50" s="5"/>
       <c r="M50" s="5"/>
@@ -3124,30 +3127,28 @@
         <v>0</v>
       </c>
       <c r="B51" s="17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="18">
-        <v>1860</v>
+        <v>1840</v>
       </c>
       <c r="E51" s="18">
-        <v>1870</v>
+        <v>1800</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G51" s="7">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J51" s="4" t="s">
-        <v>120</v>
-      </c>
+      <c r="J51" s="19"/>
       <c r="K51" s="5"/>
       <c r="L51" s="5"/>
       <c r="M51" s="5"/>
@@ -3172,28 +3173,30 @@
         <v>0</v>
       </c>
       <c r="B52" s="17" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="18">
-        <v>1880</v>
+        <v>1860</v>
       </c>
       <c r="E52" s="18">
-        <v>1890</v>
+        <v>1870</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G52" s="7">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="I52" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J52" s="19"/>
+      <c r="J52" s="4" t="s">
+        <v>120</v>
+      </c>
       <c r="K52" s="5"/>
       <c r="L52" s="5"/>
       <c r="M52" s="5"/>
@@ -3218,30 +3221,28 @@
         <v>0</v>
       </c>
       <c r="B53" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="18">
+        <v>1880</v>
+      </c>
+      <c r="E53" s="18">
         <v>1890</v>
       </c>
-      <c r="E53" s="18">
-        <v>1880</v>
-      </c>
       <c r="F53" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G53" s="7">
-        <v>122</v>
+        <v>64</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>80</v>
+        <v>123</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J53" s="4" t="s">
-        <v>126</v>
-      </c>
+      <c r="J53" s="19"/>
       <c r="K53" s="5"/>
       <c r="L53" s="5"/>
       <c r="M53" s="5"/>
@@ -3266,28 +3267,30 @@
         <v>0</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="18">
-        <v>1910</v>
+        <v>1890</v>
       </c>
       <c r="E54" s="18">
-        <v>1920</v>
+        <v>1880</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="G54" s="7">
-        <v>263</v>
+        <v>122</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J54" s="19"/>
+      <c r="J54" s="4" t="s">
+        <v>126</v>
+      </c>
       <c r="K54" s="5"/>
       <c r="L54" s="5"/>
       <c r="M54" s="5"/>
@@ -3312,30 +3315,28 @@
         <v>0</v>
       </c>
       <c r="B55" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="18">
-        <v>1940</v>
+        <v>1910</v>
       </c>
       <c r="E55" s="18">
-        <v>1930</v>
+        <v>1920</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>130</v>
+        <v>60</v>
       </c>
       <c r="G55" s="7">
-        <v>21</v>
+        <v>263</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J55" s="4" t="s">
-        <v>131</v>
-      </c>
+      <c r="J55" s="19"/>
       <c r="K55" s="5"/>
       <c r="L55" s="5"/>
       <c r="M55" s="5"/>
@@ -3360,28 +3361,30 @@
         <v>0</v>
       </c>
       <c r="B56" s="17" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="18">
-        <v>1840</v>
+        <v>1940</v>
       </c>
       <c r="E56" s="18">
-        <v>1850</v>
+        <v>1930</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="G56" s="7">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>133</v>
+        <v>55</v>
       </c>
       <c r="I56" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J56" s="5"/>
+      <c r="J56" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="K56" s="5"/>
       <c r="L56" s="5"/>
       <c r="M56" s="5"/>
@@ -3406,22 +3409,24 @@
         <v>0</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="18">
-        <v>1910</v>
+        <v>1840</v>
       </c>
       <c r="E57" s="18">
-        <v>1920</v>
+        <v>1850</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="G57" s="7">
-        <v>249</v>
-      </c>
-      <c r="H57" s="5"/>
+        <v>97</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>133</v>
+      </c>
       <c r="I57" s="4" t="s">
         <v>12</v>
       </c>
@@ -3463,15 +3468,13 @@
         <v>135</v>
       </c>
       <c r="G58" s="7">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H58" s="5"/>
       <c r="I58" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J58" s="4" t="s">
-        <v>136</v>
-      </c>
+      <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
       <c r="M58" s="5"/>
@@ -3496,26 +3499,28 @@
         <v>0</v>
       </c>
       <c r="B59" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="18">
-        <v>1950</v>
+        <v>1910</v>
       </c>
       <c r="E59" s="18">
-        <v>1940</v>
+        <v>1920</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G59" s="7">
-        <v>206</v>
+        <v>250</v>
       </c>
       <c r="H59" s="5"/>
       <c r="I59" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J59" s="5"/>
+      <c r="J59" s="4" t="s">
+        <v>136</v>
+      </c>
       <c r="K59" s="5"/>
       <c r="L59" s="5"/>
       <c r="M59" s="5"/>
@@ -3540,7 +3545,7 @@
         <v>0</v>
       </c>
       <c r="B60" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="18">
@@ -3550,10 +3555,10 @@
         <v>1940</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G60" s="7">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="H60" s="5"/>
       <c r="I60" s="4" t="s">
@@ -3580,32 +3585,30 @@
       <c r="AB60" s="5"/>
     </row>
     <row r="61" spans="1:28" ht="13" x14ac:dyDescent="0.15">
-      <c r="A61" s="14">
+      <c r="A61" s="1">
         <v>0</v>
       </c>
-      <c r="B61" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="14">
-        <v>1890</v>
-      </c>
-      <c r="E61" s="14">
-        <v>1880</v>
+      <c r="B61" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C61" s="5"/>
+      <c r="D61" s="18">
+        <v>1950</v>
+      </c>
+      <c r="E61" s="18">
+        <v>1940</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G61" s="19">
-        <v>148</v>
-      </c>
-      <c r="H61" s="10"/>
-      <c r="I61" s="22" t="s">
+        <v>140</v>
+      </c>
+      <c r="G61" s="7">
+        <v>173</v>
+      </c>
+      <c r="H61" s="5"/>
+      <c r="I61" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J61" s="22" t="s">
-        <v>142</v>
-      </c>
+      <c r="J61" s="5"/>
       <c r="K61" s="5"/>
       <c r="L61" s="5"/>
       <c r="M61" s="5"/>
@@ -3626,16 +3629,32 @@
       <c r="AB61" s="5"/>
     </row>
     <row r="62" spans="1:28" ht="13" x14ac:dyDescent="0.15">
-      <c r="A62" s="5"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="21"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
+      <c r="A62" s="14">
+        <v>0</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" s="10"/>
+      <c r="D62" s="14">
+        <v>1890</v>
+      </c>
+      <c r="E62" s="14">
+        <v>1880</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G62" s="19">
+        <v>148</v>
+      </c>
+      <c r="H62" s="10"/>
+      <c r="I62" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J62" s="22" t="s">
+        <v>142</v>
+      </c>
       <c r="K62" s="5"/>
       <c r="L62" s="5"/>
       <c r="M62" s="5"/>
@@ -30895,6 +30914,36 @@
       <c r="AA970" s="5"/>
       <c r="AB970" s="5"/>
     </row>
+    <row r="971" spans="1:28" ht="13" x14ac:dyDescent="0.15">
+      <c r="A971" s="5"/>
+      <c r="B971" s="20"/>
+      <c r="C971" s="5"/>
+      <c r="D971" s="5"/>
+      <c r="E971" s="5"/>
+      <c r="F971" s="21"/>
+      <c r="G971" s="21"/>
+      <c r="H971" s="5"/>
+      <c r="I971" s="5"/>
+      <c r="J971" s="5"/>
+      <c r="K971" s="5"/>
+      <c r="L971" s="5"/>
+      <c r="M971" s="5"/>
+      <c r="N971" s="5"/>
+      <c r="O971" s="5"/>
+      <c r="P971" s="5"/>
+      <c r="Q971" s="5"/>
+      <c r="R971" s="5"/>
+      <c r="S971" s="5"/>
+      <c r="T971" s="5"/>
+      <c r="U971" s="5"/>
+      <c r="V971" s="5"/>
+      <c r="W971" s="5"/>
+      <c r="X971" s="5"/>
+      <c r="Y971" s="5"/>
+      <c r="Z971" s="5"/>
+      <c r="AA971" s="5"/>
+      <c r="AB971" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
